--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\gdrive\yamasita\インテリア山下\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{800BAC85-50B9-4F12-A7C1-A8E59EFC1966}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C8C7CB7A-409C-41D2-82D1-4FD94FFA1FD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インテリア山下" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>URL</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>getgoal0102</t>
-  </si>
-  <si>
-    <t>参考サイト</t>
   </si>
   <si>
     <t>FTP情報</t>
@@ -88,17 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://mazmazmaz.xyz/wp/wp/wp-admin/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在メモ</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Git Hub</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -116,10 +99,6 @@
   </si>
   <si>
     <t>sukimaw0umeru</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://mazmazmaz.xyz/wp/</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -456,6 +435,93 @@
   </si>
   <si>
     <t>history.back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://interior-yamashita.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wordpress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interior-yamashita.com/wp/wp-login.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yamashita1234#
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン :</t>
+  </si>
+  <si>
+    <t>4.9.6-ja-jetpack_webfont</t>
+  </si>
+  <si>
+    <t>ブログURL :</t>
+  </si>
+  <si>
+    <t>http://www.interior-yamashita.com</t>
+  </si>
+  <si>
+    <t>データベース :</t>
+  </si>
+  <si>
+    <t>MySQL / 新規作成 /</t>
+  </si>
+  <si>
+    <t>テーブル接頭語 :</t>
+  </si>
+  <si>
+    <t>wp_</t>
+  </si>
+  <si>
+    <t>ブログタイトル :</t>
+  </si>
+  <si>
+    <t>株式会社インテリア山下－新潟市のインテリア小売店舗と内装仕上げ工事のパイオニア</t>
+  </si>
+  <si>
+    <t>管理者パスワード :</t>
+  </si>
+  <si>
+    <t>yamashita1234#</t>
+  </si>
+  <si>
+    <t>管理者メールアドレス :</t>
+  </si>
+  <si>
+    <t>m.yamashita@theoria.ne.jp</t>
+  </si>
+  <si>
+    <t>現状</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績の詳細デザイン参考URLをお伝えするのを忘れていました。</t>
+  </si>
+  <si>
+    <t>新発田建設：実績</t>
+  </si>
+  <si>
+    <t>以前のデザインだと、 ここを調整することになると思います。</t>
+  </si>
+  <si>
+    <t>http://www.shibaken.co.jp/works/h2017311100.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://masuzawa.hippy.jp/interior/detail5.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,7 +605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +619,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,147 +963,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV36"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28:K36"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I18" t="s">
         <v>14</v>
       </c>
-      <c r="AT15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="AV17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="AV18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B33" s="4"/>
-      <c r="AF33" s="4"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B36" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="B42" s="4"/>
+      <c r="AF42" s="4"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="B45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AV18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AJ9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://mazmazmaz.xyz/wp/wp/wp-admin/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C33" r:id="rId6" xr:uid="{39BA26D1-82FE-4CEF-AA7D-CAC14E561135}"/>
+    <hyperlink ref="C35" r:id="rId7" xr:uid="{8D3DEE9C-6248-443D-9BEA-FA25F4369D59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1042,9 +1199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ26" sqref="AJ26"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1055,192 +1212,192 @@
   <sheetData>
     <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="X9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Y9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AR11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AS12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.15">
       <c r="AG14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="V15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AG15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.15">
       <c r="AH17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC18" t="s">
         <v>51</v>
-      </c>
-      <c r="V18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.15">
       <c r="V19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.15">
       <c r="V24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.15">
       <c r="V26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C8C7CB7A-409C-41D2-82D1-4FD94FFA1FD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1543320-525F-409E-98ED-8E31346F65B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>URL</t>
   </si>
@@ -522,6 +522,45 @@
   </si>
   <si>
     <t>http://masuzawa.hippy.jp/interior/detail5.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細ページにカテゴリ一覧とタグ一覧を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topのサムネ下のテキストをどうするか？</t>
+    <rPh sb="7" eb="8">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーの業種と内容別はカテゴリーを充てる</t>
+    <rPh sb="5" eb="7">
+      <t>ギョウシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -967,7 +1006,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1063,7 +1102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +1110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1079,7 +1118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1087,7 +1126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
@@ -1095,7 +1134,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1103,7 +1142,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1111,7 +1150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1119,7 +1158,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
@@ -1127,7 +1166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -1135,28 +1174,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="Y31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>89</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="C33" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1543320-525F-409E-98ED-8E31346F65B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5591EC0B-D4BD-441C-9449-443201E627B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>URL</t>
   </si>
@@ -560,6 +560,70 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページャーを用意</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー一覧ページとタグ一覧ページのタイトル部分のデザイン</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細ページのカテゴリ一覧にサムネをどう入れる？</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下さんに相談</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下さんに説明</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細ページの「そのページの」カテゴリーとタグのデザイン</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1006,7 +1070,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y34" sqref="Y34"/>
+      <selection pane="bottomLeft" activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1102,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1126,7 +1190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
@@ -1134,7 +1198,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1142,7 +1206,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1150,7 +1214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1158,7 +1222,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
@@ -1166,7 +1230,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -1174,15 +1238,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
         <v>88</v>
       </c>
@@ -1190,12 +1254,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>89</v>
       </c>
-      <c r="Y32" t="s">
-        <v>93</v>
+      <c r="Z32" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
@@ -1203,18 +1267,53 @@
       <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="X33" t="s">
+        <v>97</v>
+      </c>
       <c r="Y33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>90</v>
       </c>
+      <c r="Y34" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="X36" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="Y37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="Z38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="X39" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5591EC0B-D4BD-441C-9449-443201E627B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AF12F2-3AE9-4EE0-B931-4B4A5BDD175F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t>URL</t>
   </si>
@@ -624,6 +624,58 @@
     <t>詳細ページの「そのページの」カテゴリーとタグのデザイン</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーの一覧表示と現在のページのカテゴリー（複数）の表示方法</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>analyticsのタグを貰う</t>
+    <rPh sb="13" eb="14">
+      <t>モラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーのSPの調整</t>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社概要のmapの倍率を変える</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1070,7 +1122,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X33" sqref="X33"/>
+      <selection pane="bottomLeft" activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1286,8 +1338,8 @@
       <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y35" t="s">
-        <v>99</v>
+      <c r="Z35" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
@@ -1295,30 +1347,54 @@
         <v>97</v>
       </c>
       <c r="Y36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="X37" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="Y37" t="s">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="X38" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="Z38" t="s">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="Z39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="X39" t="s">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="X40" t="s">
         <v>97</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y40" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="Y41" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
+      <c r="Y42" t="s">
+        <v>105</v>
+      </c>
       <c r="AF42" s="4"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="Y43" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AF12F2-3AE9-4EE0-B931-4B4A5BDD175F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5220E6DA-4A0F-4E66-B1D4-3495B4E53746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
   <si>
     <t>URL</t>
   </si>
@@ -676,6 +676,23 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴのSVG化</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示オプションを見る</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1121,8 +1138,8 @@
   <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V42" sqref="V42"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1319,35 +1336,32 @@
       <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X33" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>93</v>
+      <c r="Z33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>90</v>
       </c>
+      <c r="X34" t="s">
+        <v>97</v>
+      </c>
       <c r="Y34" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z35" s="3" t="s">
+      <c r="Y35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="Z36" s="3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="X36" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.15">
@@ -1355,7 +1369,7 @@
         <v>97</v>
       </c>
       <c r="Y37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
@@ -1363,44 +1377,62 @@
         <v>97</v>
       </c>
       <c r="Y38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="X39" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="Z39" t="s">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="Y40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="X40" t="s">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="X41" t="s">
         <v>97</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Y41" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="Y41" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="Y42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF42" s="4"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="X43" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y43" t="s">
         <v>105</v>
-      </c>
-      <c r="AF42" s="4"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="Y43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
+      <c r="X44" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
+      <c r="Y45" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\fukuzo\anken\yamashita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5220E6DA-4A0F-4E66-B1D4-3495B4E53746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="インテリア山下" sheetId="3" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>URL</t>
   </si>
@@ -700,7 +699,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -890,23 +889,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -942,23 +924,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,33 +1099,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z34" sqref="Z34"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>68</v>
       </c>
@@ -1168,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>70</v>
       </c>
@@ -1176,7 +1141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>71</v>
       </c>
@@ -1184,7 +1149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1195,7 +1160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1206,12 +1171,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1259,7 +1224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
@@ -1267,7 +1232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1275,7 +1240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1283,7 +1248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1291,7 +1256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
@@ -1299,7 +1264,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -1307,15 +1272,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>88</v>
       </c>
@@ -1323,7 +1288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>89</v>
       </c>
@@ -1331,7 +1296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="1" t="s">
         <v>91</v>
@@ -1340,7 +1305,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>90</v>
       </c>
@@ -1351,7 +1316,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
@@ -1359,12 +1324,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Z36" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X37" t="s">
         <v>97</v>
       </c>
@@ -1372,7 +1337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X38" t="s">
         <v>97</v>
       </c>
@@ -1380,7 +1345,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X39" t="s">
         <v>97</v>
       </c>
@@ -1388,7 +1353,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Y40" t="s">
         <v>97</v>
       </c>
@@ -1396,7 +1361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X41" t="s">
         <v>97</v>
       </c>
@@ -1404,14 +1369,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="Y42" t="s">
         <v>104</v>
       </c>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X43" t="s">
         <v>97</v>
       </c>
@@ -1419,7 +1384,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="X44" t="s">
         <v>97</v>
@@ -1428,8 +1393,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
+      <c r="X45" t="s">
+        <v>97</v>
+      </c>
       <c r="Y45" t="s">
         <v>107</v>
       </c>
@@ -1437,13 +1405,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AJ9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://mazmazmaz.xyz/wp/wp/wp-admin/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C33" r:id="rId6" xr:uid="{39BA26D1-82FE-4CEF-AA7D-CAC14E561135}"/>
-    <hyperlink ref="C35" r:id="rId7" xr:uid="{8D3DEE9C-6248-443D-9BEA-FA25F4369D59}"/>
+    <hyperlink ref="G14" r:id="rId1"/>
+    <hyperlink ref="I16" r:id="rId2"/>
+    <hyperlink ref="AJ9" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://mazmazmaz.xyz/wp/wp/wp-admin/"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
+    <hyperlink ref="C35" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -1451,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1459,19 +1427,19 @@
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -1479,7 +1447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -1490,7 +1458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="X9" t="s">
         <v>43</v>
       </c>
@@ -1520,7 +1488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1528,7 +1496,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1539,7 +1507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -1547,12 +1515,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AG14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -1563,7 +1531,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>27</v>
       </c>
@@ -1574,12 +1542,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="AH17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>46</v>
       </c>
@@ -1590,12 +1558,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="V19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="W20" t="s">
         <v>50</v>
       </c>
@@ -1603,7 +1571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1614,7 +1582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1625,32 +1593,32 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="W23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="V24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="V26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="W27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="W28" t="s">
         <v>58</v>
       </c>

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>URL</t>
   </si>
@@ -627,28 +627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カテゴリーの一覧表示と現在のページのカテゴリー（複数）の表示方法</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>analyticsのタグを貰う</t>
     <rPh sb="13" eb="14">
       <t>モラ</t>
@@ -692,6 +670,51 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別の一覧ページをどうするか</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のページのカテゴリー（複数）の表示方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IEのみロゴの高さがおかしい</t>
+    <rPh sb="7" eb="8">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height:100%;を指定してみる</t>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抜粋で対応</t>
+    <rPh sb="0" eb="2">
+      <t>バッスイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラグインにて対応</t>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1100,11 +1123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X45" sqref="X45"/>
+      <selection pane="bottomLeft" activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1307,9 @@
       <c r="C31" t="s">
         <v>88</v>
       </c>
+      <c r="X31" t="s">
+        <v>97</v>
+      </c>
       <c r="Y31" t="s">
         <v>94</v>
       </c>
@@ -1292,20 +1318,29 @@
       <c r="C32" t="s">
         <v>89</v>
       </c>
+      <c r="Y32" t="s">
+        <v>97</v>
+      </c>
       <c r="Z32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="Y33" t="s">
+        <v>97</v>
+      </c>
       <c r="Z33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>90</v>
       </c>
@@ -1316,28 +1351,37 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
       <c r="Y35" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="X36" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Z36" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="X37" t="s">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="Y37" t="s">
         <v>97</v>
       </c>
-      <c r="Y37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z37" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="X38" t="s">
         <v>97</v>
       </c>
@@ -1345,7 +1389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="X39" t="s">
         <v>97</v>
       </c>
@@ -1353,7 +1397,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Y40" t="s">
         <v>97</v>
       </c>
@@ -1361,7 +1405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="X41" t="s">
         <v>97</v>
       </c>
@@ -1369,37 +1413,50 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="Y42" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF42" s="4"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="X43" t="s">
         <v>97</v>
       </c>
       <c r="Y43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="AF43" s="4"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="X44" t="s">
         <v>97</v>
       </c>
       <c r="Y44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="X45" t="s">
         <v>97</v>
       </c>
       <c r="Y45" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="Z46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="Y47" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -15,12 +15,12 @@
     <sheet name="インテリア山下" sheetId="3" r:id="rId1"/>
     <sheet name="CSS構造" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>URL</t>
   </si>
@@ -715,6 +715,23 @@
     <t>プラグインにて対応</t>
     <rPh sb="7" eb="9">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中身は出来た</t>
+    <rPh sb="0" eb="2">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページャーが出ない</t>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -723,7 +740,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +790,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -799,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +842,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,14 +1152,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP47"/>
+  <dimension ref="A1:AY49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W38" sqref="W38"/>
+      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="51" max="51" width="7.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1223,7 +1255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1247,7 +1279,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
@@ -1255,7 +1287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1263,7 +1295,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1271,7 +1303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1279,7 +1311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
@@ -1287,7 +1319,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -1295,15 +1327,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AY30">
+        <f>881*0.35</f>
+        <v>308.34999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>88</v>
       </c>
@@ -1314,7 +1350,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>89</v>
       </c>
@@ -1457,6 +1493,16 @@
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Y47" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="Z48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z49" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\fukuzo\anken\yamashita\interior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA26BCD-3A87-4FAE-B660-FA87947287C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インテリア山下" sheetId="3" r:id="rId1"/>
     <sheet name="CSS構造" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
   <si>
     <t>URL</t>
   </si>
@@ -729,9 +730,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ページャーが出ない</t>
+    <t>ページャーが出るようになった</t>
     <rPh sb="6" eb="7">
       <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次はpage-testの機能をpage-listに入れる</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.puzzle-web.jp/archive/1678/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.nishi2002.com/15356.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタムフィールドで画像の登録をする</t>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -739,8 +771,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +831,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -825,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +885,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,6 +984,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -976,6 +1036,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1151,36 +1228,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AY53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
+      <selection pane="bottomLeft" activeCell="X55" sqref="X55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="51" max="51" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="s">
         <v>68</v>
       </c>
@@ -1188,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>70</v>
       </c>
@@ -1196,7 +1273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>71</v>
       </c>
@@ -1204,7 +1281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1215,7 +1292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,12 +1303,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -1255,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1279,7 +1356,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
@@ -1287,7 +1364,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1295,7 +1372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1303,7 +1380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1311,7 +1388,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
@@ -1319,7 +1396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -1327,10 +1404,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
@@ -1339,7 +1416,7 @@
         <v>308.34999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
         <v>88</v>
       </c>
@@ -1350,7 +1427,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>89</v>
       </c>
@@ -1361,7 +1438,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="C33" s="1" t="s">
         <v>91</v>
@@ -1376,7 +1453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>90</v>
       </c>
@@ -1387,7 +1464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
@@ -1401,7 +1478,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
       <c r="X36" t="s">
         <v>97</v>
       </c>
@@ -1409,7 +1486,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
       <c r="Y37" t="s">
         <v>97</v>
       </c>
@@ -1417,7 +1494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.15">
       <c r="X38" t="s">
         <v>97</v>
       </c>
@@ -1425,7 +1502,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.15">
       <c r="X39" t="s">
         <v>97</v>
       </c>
@@ -1433,7 +1510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.15">
       <c r="Y40" t="s">
         <v>97</v>
       </c>
@@ -1441,7 +1518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.15">
       <c r="X41" t="s">
         <v>97</v>
       </c>
@@ -1449,13 +1526,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
-      <c r="Y42" t="s">
+      <c r="Y42" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.15">
       <c r="X43" t="s">
         <v>97</v>
       </c>
@@ -1464,7 +1541,7 @@
       </c>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="X44" t="s">
         <v>97</v>
@@ -1473,7 +1550,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="X45" t="s">
         <v>97</v>
@@ -1482,7 +1559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.15">
       <c r="Z46" s="3" t="s">
         <v>110</v>
       </c>
@@ -1490,39 +1567,61 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.15">
       <c r="Y47" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.15">
       <c r="Z48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="26:28" x14ac:dyDescent="0.15">
       <c r="Z49" s="6" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="26:28" x14ac:dyDescent="0.15">
+      <c r="AA50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="26:28" x14ac:dyDescent="0.15">
+      <c r="AB51" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="26:28" x14ac:dyDescent="0.15">
+      <c r="AB52" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="26:28" x14ac:dyDescent="0.15">
+      <c r="AA53" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1"/>
-    <hyperlink ref="I16" r:id="rId2"/>
-    <hyperlink ref="AJ9" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://mazmazmaz.xyz/wp/wp/wp-admin/"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="C33" r:id="rId6"/>
-    <hyperlink ref="C35" r:id="rId7"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AJ9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://mazmazmaz.xyz/wp/wp/wp-admin/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AB51" r:id="rId8" xr:uid="{FFA6E275-B945-45B3-A2C5-4C141ED2332B}"/>
+    <hyperlink ref="AB52" r:id="rId9" xr:uid="{40092D84-8648-443B-B30A-9ACDD1537100}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1530,19 +1629,19 @@
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -1550,7 +1649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -1561,7 +1660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -1583,7 +1682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="X9" t="s">
         <v>43</v>
       </c>
@@ -1591,7 +1690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1599,7 +1698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1610,7 +1709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -1618,12 +1717,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.15">
       <c r="AG14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -1634,7 +1733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>27</v>
       </c>
@@ -1645,12 +1744,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.15">
       <c r="AH17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>46</v>
       </c>
@@ -1661,12 +1760,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.15">
       <c r="V19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W20" t="s">
         <v>50</v>
       </c>
@@ -1674,7 +1773,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1685,7 +1784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1696,32 +1795,32 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.15">
       <c r="V24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.15">
       <c r="V26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.15">
       <c r="W28" t="s">
         <v>58</v>
       </c>

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA26BCD-3A87-4FAE-B660-FA87947287C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204E7BFC-1CAF-4D01-A82A-04B358F4B226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
   <si>
     <t>URL</t>
   </si>
@@ -765,6 +765,18 @@
     <rPh sb="13" eb="15">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページャーのスタイルをあてる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1229,11 +1241,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY53"/>
+  <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X55" sqref="X55"/>
+      <selection pane="bottomLeft" activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1560,6 +1572,9 @@
       </c>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="Y46" t="s">
+        <v>122</v>
+      </c>
       <c r="Z46" s="3" t="s">
         <v>110</v>
       </c>
@@ -1573,33 +1588,56 @@
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="Y48" t="s">
+        <v>120</v>
+      </c>
       <c r="Z48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="26:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="25:28" x14ac:dyDescent="0.15">
+      <c r="Y49" t="s">
+        <v>120</v>
+      </c>
       <c r="Z49" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="26:28" x14ac:dyDescent="0.15">
+    <row r="50" spans="25:28" x14ac:dyDescent="0.15">
+      <c r="Z50" t="s">
+        <v>120</v>
+      </c>
       <c r="AA50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="26:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="25:28" x14ac:dyDescent="0.15">
+      <c r="AA51" t="s">
+        <v>120</v>
+      </c>
       <c r="AB51" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="26:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="25:28" x14ac:dyDescent="0.15">
+      <c r="AA52" t="s">
+        <v>120</v>
+      </c>
       <c r="AB52" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="26:28" x14ac:dyDescent="0.15">
+    <row r="53" spans="25:28" x14ac:dyDescent="0.15">
+      <c r="Z53" t="s">
+        <v>120</v>
+      </c>
       <c r="AA53" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="25:28" x14ac:dyDescent="0.15">
+      <c r="AA54" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204E7BFC-1CAF-4D01-A82A-04B358F4B226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A934F70F-31B9-4CDF-A5FD-45723B9920FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t>URL</t>
   </si>
@@ -777,6 +777,16 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦完了</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1241,11 +1251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY54"/>
+  <dimension ref="A1:AY55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X47" sqref="X47"/>
+      <selection pane="bottomLeft" activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1595,7 +1605,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="25:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="24:28" x14ac:dyDescent="0.15">
       <c r="Y49" t="s">
         <v>120</v>
       </c>
@@ -1603,7 +1613,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="25:28" x14ac:dyDescent="0.15">
+    <row r="50" spans="24:28" x14ac:dyDescent="0.15">
       <c r="Z50" t="s">
         <v>120</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="25:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="24:28" x14ac:dyDescent="0.15">
       <c r="AA51" t="s">
         <v>120</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="25:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="24:28" x14ac:dyDescent="0.15">
       <c r="AA52" t="s">
         <v>120</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="25:28" x14ac:dyDescent="0.15">
+    <row r="53" spans="24:28" x14ac:dyDescent="0.15">
       <c r="Z53" t="s">
         <v>120</v>
       </c>
@@ -1635,9 +1645,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="25:28" x14ac:dyDescent="0.15">
+    <row r="54" spans="24:28" x14ac:dyDescent="0.15">
+      <c r="Z54" t="s">
+        <v>97</v>
+      </c>
       <c r="AA54" s="3" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="24:28" x14ac:dyDescent="0.15">
+      <c r="X55" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A934F70F-31B9-4CDF-A5FD-45723B9920FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="インテリア山下" sheetId="3" r:id="rId1"/>
     <sheet name="CSS構造" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
   <si>
     <t>URL</t>
   </si>
@@ -787,13 +781,53 @@
     <rPh sb="2" eb="4">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正_20190813</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topの一覧を大8、小4にする</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spの時に追従ボタン、下まで行ったらfadeOut</t>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイジュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✓</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -870,11 +904,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -887,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +955,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -931,7 +977,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -973,7 +1019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,26 +1052,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1058,23 +1087,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1250,12 +1262,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V54" sqref="V54"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1354,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
@@ -1386,7 +1398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1394,7 +1406,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -1426,250 +1438,269 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B56" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AY30">
+      <c r="AY56">
         <f>881*0.35</f>
         <v>308.34999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
         <v>88</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X57" t="s">
         <v>97</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
         <v>89</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Y58" t="s">
         <v>97</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Z58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="C33" s="1" t="s">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="C59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y59" t="s">
         <v>97</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Z59" t="s">
         <v>107</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AG59" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
         <v>90</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X60" t="s">
         <v>97</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="C35" s="1" t="s">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="C61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y61" t="s">
         <v>97</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Z61" t="s">
         <v>99</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AP61" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="X36" t="s">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="X62" t="s">
         <v>97</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y62" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="Y37" t="s">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="Y63" t="s">
         <v>97</v>
       </c>
-      <c r="Z37" s="3" t="s">
+      <c r="Z63" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="X38" t="s">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="X64" t="s">
         <v>97</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="X39" t="s">
+    <row r="65" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="X65" t="s">
         <v>97</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y65" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="Y40" t="s">
+    <row r="66" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y66" t="s">
         <v>97</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Z66" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="X41" t="s">
+    <row r="67" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="X67" t="s">
         <v>97</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y67" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="B42" s="4"/>
-      <c r="Y42" s="7" t="s">
+    <row r="68" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B68" s="4"/>
+      <c r="Y68" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="X43" t="s">
+    <row r="69" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="X69" t="s">
         <v>97</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Y69" t="s">
         <v>104</v>
       </c>
-      <c r="AF43" s="4"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="B44" s="4"/>
-      <c r="X44" t="s">
+      <c r="AF69" s="4"/>
+    </row>
+    <row r="70" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B70" s="4"/>
+      <c r="X70" t="s">
         <v>97</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y70" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="B45" s="4"/>
-      <c r="X45" t="s">
+    <row r="71" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B71" s="4"/>
+      <c r="X71" t="s">
         <v>97</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="Y46" t="s">
+    <row r="72" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y72" t="s">
         <v>122</v>
       </c>
-      <c r="Z46" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AJ72" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="Y47" t="s">
+    <row r="73" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y73" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="Y48" t="s">
+    <row r="74" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y74" t="s">
         <v>120</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Z74" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="24:28" x14ac:dyDescent="0.15">
-      <c r="Y49" t="s">
+    <row r="75" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y75" t="s">
         <v>120</v>
       </c>
-      <c r="Z49" s="6" t="s">
+      <c r="Z75" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="24:28" x14ac:dyDescent="0.15">
-      <c r="Z50" t="s">
+    <row r="76" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Z76" t="s">
         <v>120</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AA76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="24:28" x14ac:dyDescent="0.15">
-      <c r="AA51" t="s">
+    <row r="77" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AA77" t="s">
         <v>120</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AB77" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="24:28" x14ac:dyDescent="0.15">
-      <c r="AA52" t="s">
+    <row r="78" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AA78" t="s">
         <v>120</v>
       </c>
-      <c r="AB52" s="1" t="s">
+      <c r="AB78" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="24:28" x14ac:dyDescent="0.15">
-      <c r="Z53" t="s">
+    <row r="79" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Z79" t="s">
         <v>120</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AA79" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="24:28" x14ac:dyDescent="0.15">
-      <c r="Z54" t="s">
+    <row r="80" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Z80" t="s">
         <v>97</v>
       </c>
-      <c r="AA54" s="3" t="s">
+      <c r="AA80" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="24:28" x14ac:dyDescent="0.15">
-      <c r="X55" t="s">
+    <row r="81" spans="24:24" x14ac:dyDescent="0.15">
+      <c r="X81" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AJ9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://mazmazmaz.xyz/wp/wp/wp-admin/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AB51" r:id="rId8" xr:uid="{FFA6E275-B945-45B3-A2C5-4C141ED2332B}"/>
-    <hyperlink ref="AB52" r:id="rId9" xr:uid="{40092D84-8648-443B-B30A-9ACDD1537100}"/>
+    <hyperlink ref="G14" r:id="rId1"/>
+    <hyperlink ref="I16" r:id="rId2"/>
+    <hyperlink ref="AJ9" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://mazmazmaz.xyz/wp/wp/wp-admin/"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="C59" r:id="rId6"/>
+    <hyperlink ref="C61" r:id="rId7"/>
+    <hyperlink ref="AB77" r:id="rId8"/>
+    <hyperlink ref="AB78" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -1677,7 +1708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS28"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC68E6-7E42-4E8E-B956-08947D374377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13920"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インテリア山下" sheetId="3" r:id="rId1"/>
     <sheet name="CSS構造" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
   <si>
     <t>URL</t>
   </si>
@@ -827,7 +840,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,7 +990,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1019,7 +1032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1052,9 +1065,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1087,6 +1117,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1262,11 +1309,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1455,6 +1502,9 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
       <c r="C34" t="s">
         <v>126</v>
       </c>
@@ -1692,15 +1742,15 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1"/>
-    <hyperlink ref="I16" r:id="rId2"/>
-    <hyperlink ref="AJ9" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://mazmazmaz.xyz/wp/wp/wp-admin/"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="C59" r:id="rId6"/>
-    <hyperlink ref="C61" r:id="rId7"/>
-    <hyperlink ref="AB77" r:id="rId8"/>
-    <hyperlink ref="AB78" r:id="rId9"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AJ9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://mazmazmaz.xyz/wp/wp/wp-admin/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C59" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C61" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AB77" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AB78" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -1708,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS28"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/インテリア山下.xlsx
+++ b/インテリア山下.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\fukuzo\anken\yamasita\interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC68E6-7E42-4E8E-B956-08947D374377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF565CBE-6CBA-4F25-BF08-6C39CC174424}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="-16245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インテリア山下" sheetId="3" r:id="rId1"/>
     <sheet name="CSS構造" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
   <si>
     <t>URL</t>
   </si>
@@ -834,6 +834,14 @@
   </si>
   <si>
     <t>✓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vSpwG4&amp;35MBmyX&amp;6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1314,7 +1322,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1403,6 +1411,12 @@
       </c>
       <c r="G15" t="s">
         <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.15">
